--- a/PositionView.xlsx
+++ b/PositionView.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\ConnectTeamPositionView\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17031E9-123E-42EA-940A-01DDFE60E490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F668F902-EE73-4515-94E3-A43BE1B413A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="834" yWindow="-96" windowWidth="19998" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shifts" sheetId="1" r:id="rId1"/>
@@ -625,16 +625,16 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -752,7 +752,40 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{988B993E-00BC-444D-BC63-B4F886B8CC5B}" type="CELLRANGE">
+                    <a:fld id="{8420AB24-E7E3-481C-8BD9-023827956335}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-F7E9-49B9-BF01-3FAAC915ADD6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8381CE14-4EB8-4342-8E60-B74E9D4B27BE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -775,18 +808,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-F7E9-49B9-BF01-3FAAC915ADD6}"/>
+                  <c16:uniqueId val="{00000003-F7E9-49B9-BF01-3FAAC915ADD6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="2"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD9D3E52-0E73-41D4-A4C6-ADAF1AA103C7}" type="CELLRANGE">
+                    <a:fld id="{75126EF7-CF75-4BB0-8F8B-504DDC7099FA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -809,18 +842,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F7E9-49B9-BF01-3FAAC915ADD6}"/>
+                  <c16:uniqueId val="{00000004-F7E9-49B9-BF01-3FAAC915ADD6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="3"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B37DB110-6A17-4EDD-B235-75005D98F732}" type="CELLRANGE">
+                    <a:fld id="{962A5BE1-0ECA-40B1-81B9-D3EC3C0E5380}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -843,18 +876,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-F7E9-49B9-BF01-3FAAC915ADD6}"/>
+                  <c16:uniqueId val="{00000005-F7E9-49B9-BF01-3FAAC915ADD6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="4"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B594A49-91E1-4D62-B3B6-85D663E6FBDA}" type="CELLRANGE">
+                    <a:fld id="{09FEC8AD-D4FF-403A-98D1-A00ED3D2F3E0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -877,18 +910,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-F7E9-49B9-BF01-3FAAC915ADD6}"/>
+                  <c16:uniqueId val="{00000006-F7E9-49B9-BF01-3FAAC915ADD6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="5"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9171C04-F85A-4D3B-B63E-361889FB37B6}" type="CELLRANGE">
+                    <a:fld id="{CB103D76-41C3-4EFC-8A5F-090EA618374C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -911,18 +944,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-F7E9-49B9-BF01-3FAAC915ADD6}"/>
+                  <c16:uniqueId val="{00000007-F7E9-49B9-BF01-3FAAC915ADD6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="6"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86DAB740-45F0-4F27-9776-13574C9D9947}" type="CELLRANGE">
+                    <a:fld id="{EDBBE32A-4791-4D27-B01F-B3A9327BC2BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -945,18 +978,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-F7E9-49B9-BF01-3FAAC915ADD6}"/>
+                  <c16:uniqueId val="{00000008-F7E9-49B9-BF01-3FAAC915ADD6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="7"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3CF4552-788E-4EFF-812A-A2FC5ABBB3DA}" type="CELLRANGE">
+                    <a:fld id="{26FBAAF4-0914-4033-BC4E-691158D3DDC3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -979,40 +1012,6 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-F7E9-49B9-BF01-3FAAC915ADD6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{ECA5D803-28D9-4587-BC56-1893C15FE54C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-F7E9-49B9-BF01-3FAAC915ADD6}"/>
                 </c:ext>
               </c:extLst>
@@ -1024,7 +1023,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9C28C39-1C2A-42D6-9145-FAEA5CB05A0C}" type="CELLRANGE">
+                    <a:fld id="{8BBF99DC-233A-4839-AFCE-C2409DFF40A5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1073,7 +1072,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{94FDAE1C-1B6D-4FAB-B4CF-F99ED0D69714}" type="CELLRANGE">
+                    <a:fld id="{DCC7DBBD-2730-4BCE-BB36-3E787570FB28}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr algn="ctr">
                         <a:defRPr sz="700">
@@ -1145,7 +1144,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9CFB4BB6-5755-47E3-8645-E1E7F157AC92}" type="CELLRANGE">
+                    <a:fld id="{8FB427E6-FA2C-40DC-9101-E924029E5B7D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1179,7 +1178,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A50CDD0-7B12-4B39-B037-4A27C8002FC9}" type="CELLRANGE">
+                    <a:fld id="{4EA46AE7-387F-442B-83E4-5E4E2B79D131}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1213,7 +1212,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC95B52C-3BF5-4CCB-96FD-2F44BD34967F}" type="CELLRANGE">
+                    <a:fld id="{2BD4E315-074E-43FA-B7BE-E96AC69AE749}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1247,7 +1246,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{956095B0-B2E5-4BEF-A040-EF2A15580B4A}" type="CELLRANGE">
+                    <a:fld id="{FFA1838D-357C-42E5-9882-C6FFEBE032ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1281,7 +1280,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2FEC755-E409-4B9D-B587-CEA29ADFF878}" type="CELLRANGE">
+                    <a:fld id="{A943B83D-AE8B-425F-99A0-D7D21D4267D7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1315,7 +1314,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A35F618-D7E5-4C40-A426-98E89FE53D0E}" type="CELLRANGE">
+                    <a:fld id="{0F43CDD8-ECAE-4F9F-8B4B-1C5B7A7CCB67}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1349,7 +1348,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E03DA028-04E0-4D1F-BF92-D7AB846D6B38}" type="CELLRANGE">
+                    <a:fld id="{0F9E11F2-BE44-4EC2-82C2-BC331B334F49}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1383,7 +1382,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C40F025-899A-45B4-9A02-350035AAF4E9}" type="CELLRANGE">
+                    <a:fld id="{92B8C22B-22BA-406F-B073-EB7EE4624A9D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1417,7 +1416,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A728EBB7-ED7C-4F63-8CEF-49F4991621CD}" type="CELLRANGE">
+                    <a:fld id="{CE805C4A-2B24-447C-B383-7DA3F8B45BA7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1451,7 +1450,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05DC1327-09E7-4C73-B380-EC9A4BE4D149}" type="CELLRANGE">
+                    <a:fld id="{CDFAFEC6-AA07-4FAA-91F9-42CF6B016336}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1485,7 +1484,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D92AB5F0-9A56-4D79-8F76-9D8160A7063B}" type="CELLRANGE">
+                    <a:fld id="{8D1A61E7-CA06-404B-A24C-0E4CEEB79B00}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1519,7 +1518,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B82F67F7-4652-443C-8392-08B6977C2E25}" type="CELLRANGE">
+                    <a:fld id="{4AC9DC29-44C9-49DE-A094-98CB3E942221}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1553,7 +1552,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29199892-10A1-41F7-824F-6957378D0039}" type="CELLRANGE">
+                    <a:fld id="{708FD9ED-28D0-404E-84AA-2D064818BDA4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1587,7 +1586,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B6F62AB-81FD-4566-B2FF-176FBDF0B9EE}" type="CELLRANGE">
+                    <a:fld id="{19AD27AD-BC32-4A2B-A345-13DC61E237A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1621,7 +1620,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B94E48AD-66C0-4B8B-8EA3-91B96057E3D6}" type="CELLRANGE">
+                    <a:fld id="{AE71E3C3-32B5-4DCB-94DD-EDDD5458EE13}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1655,7 +1654,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D5A14FB-5EAC-42DF-9E3E-D1F88EA4D54E}" type="CELLRANGE">
+                    <a:fld id="{0BBA53DD-993F-48E6-8A5D-0AAC191BDBB7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1689,7 +1688,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{300FC576-3FEC-4B2D-BCB9-29DE5E385B99}" type="CELLRANGE">
+                    <a:fld id="{4FCA7330-BF33-47AF-9695-7451B3307B96}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1970,8 +1969,8 @@
         <c:axId val="1993770271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45005.9270833275"/>
-          <c:min val="45005.312500000007"/>
+          <c:max val="0.91666673999999992"/>
+          <c:min val="0.31250002500000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2651,7 +2650,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659091" cy="6286500"/>
+    <xdr:ext cx="8666018" cy="6289964"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2686,9 +2685,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{24A53CF5-C374-40D0-885A-95A1E41E7A19}" name="Position" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{1F50D5FA-CB8C-42E8-8457-9945DE2B5997}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{BE56615B-9BE1-4B1A-8A0C-CB0334994BA9}" name="Start" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{C260F322-C386-4C9B-8317-6463DAB59536}" name="End" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{4DA019A8-C29D-46C6-8C85-AD914757DFC1}" name="Duration" totalsRowFunction="average" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="3" xr3:uid="{BE56615B-9BE1-4B1A-8A0C-CB0334994BA9}" name="Start" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C260F322-C386-4C9B-8317-6463DAB59536}" name="End" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4DA019A8-C29D-46C6-8C85-AD914757DFC1}" name="Duration" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Table6[[#This Row],[End]]-Table6[[#This Row],[Start]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2997,22 +2996,22 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A2" sqref="A2:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.68359375" customWidth="1"/>
+    <col min="2" max="2" width="11.83984375" customWidth="1"/>
+    <col min="3" max="3" width="9.68359375" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1">
@@ -3039,7 +3038,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1">
@@ -3049,7 +3048,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1">
@@ -3059,7 +3058,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1">
@@ -3069,7 +3068,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1">
@@ -3079,7 +3078,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1">
@@ -3089,7 +3088,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1">
@@ -3099,7 +3098,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1">
@@ -3109,7 +3108,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1">
@@ -3119,7 +3118,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1">
@@ -3129,7 +3128,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="1">
@@ -3139,7 +3138,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="1">
@@ -3149,7 +3148,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="1">
@@ -3159,7 +3158,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1">
@@ -3169,7 +3168,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1">
@@ -3179,7 +3178,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1">
@@ -3189,7 +3188,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1">
@@ -3199,7 +3198,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1">
@@ -3209,7 +3208,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1">
@@ -3219,7 +3218,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1">
@@ -3229,7 +3228,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="1">
@@ -3239,7 +3238,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="1">
@@ -3249,7 +3248,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="1">
@@ -3259,7 +3258,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="1">
@@ -3269,7 +3268,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="1">
@@ -3279,7 +3278,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="1">
@@ -3289,7 +3288,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="1">
